--- a/Code/Results/Cases/Case_1_81/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_81/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002948348464259</v>
+        <v>1.034898999729031</v>
       </c>
       <c r="D2">
-        <v>1.033685567042614</v>
+        <v>1.037348674143905</v>
       </c>
       <c r="E2">
-        <v>1.015275528987116</v>
+        <v>1.042813083993994</v>
       </c>
       <c r="F2">
-        <v>1.017794482127646</v>
+        <v>1.050877323449932</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046426133822696</v>
+        <v>1.036562890441823</v>
       </c>
       <c r="J2">
-        <v>1.025041231130287</v>
+        <v>1.040015721869943</v>
       </c>
       <c r="K2">
-        <v>1.044694738522392</v>
+        <v>1.040139813858282</v>
       </c>
       <c r="L2">
-        <v>1.026526075658299</v>
+        <v>1.045588712784967</v>
       </c>
       <c r="M2">
-        <v>1.029011355307444</v>
+        <v>1.053630381151885</v>
       </c>
       <c r="N2">
-        <v>1.026496907252365</v>
+        <v>1.041492663486469</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007455863692667</v>
+        <v>1.03585520950967</v>
       </c>
       <c r="D3">
-        <v>1.03613514705656</v>
+        <v>1.037865259363114</v>
       </c>
       <c r="E3">
-        <v>1.019181576351214</v>
+        <v>1.043698400329391</v>
       </c>
       <c r="F3">
-        <v>1.022361087998506</v>
+        <v>1.051927246086503</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047467484856182</v>
+        <v>1.036728675710002</v>
       </c>
       <c r="J3">
-        <v>1.027745317541885</v>
+        <v>1.040615221469768</v>
       </c>
       <c r="K3">
-        <v>1.046325641553712</v>
+        <v>1.040466965015093</v>
       </c>
       <c r="L3">
-        <v>1.029574769882228</v>
+        <v>1.046284742189328</v>
       </c>
       <c r="M3">
-        <v>1.032715630882149</v>
+        <v>1.054492226830413</v>
       </c>
       <c r="N3">
-        <v>1.02920483377683</v>
+        <v>1.04209301444449</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010313570097708</v>
+        <v>1.036474369398514</v>
       </c>
       <c r="D4">
-        <v>1.037691592652922</v>
+        <v>1.038199658230909</v>
       </c>
       <c r="E4">
-        <v>1.021663979557259</v>
+        <v>1.04427206426585</v>
       </c>
       <c r="F4">
-        <v>1.025263900215625</v>
+        <v>1.052607761844343</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048118812811877</v>
+        <v>1.036834864325452</v>
       </c>
       <c r="J4">
-        <v>1.029457083153963</v>
+        <v>1.041002955450372</v>
       </c>
       <c r="K4">
-        <v>1.047355438887713</v>
+        <v>1.040678072916442</v>
       </c>
       <c r="L4">
-        <v>1.031507785669323</v>
+        <v>1.046735288193394</v>
       </c>
       <c r="M4">
-        <v>1.035066682018929</v>
+        <v>1.055050440215963</v>
       </c>
       <c r="N4">
-        <v>1.03091903029242</v>
+        <v>1.04248129905182</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011501336727293</v>
+        <v>1.036734765925344</v>
       </c>
       <c r="D5">
-        <v>1.038339239650632</v>
+        <v>1.038340269785279</v>
       </c>
       <c r="E5">
-        <v>1.02269716481139</v>
+        <v>1.044513424180367</v>
       </c>
       <c r="F5">
-        <v>1.026472226924147</v>
+        <v>1.052894123879218</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04838735248674</v>
+        <v>1.036879245543404</v>
       </c>
       <c r="J5">
-        <v>1.030167900685339</v>
+        <v>1.041165914326828</v>
       </c>
       <c r="K5">
-        <v>1.047782389867199</v>
+        <v>1.040766682485641</v>
       </c>
       <c r="L5">
-        <v>1.032311228394072</v>
+        <v>1.046924737149593</v>
       </c>
       <c r="M5">
-        <v>1.036044456221582</v>
+        <v>1.055285241814959</v>
       </c>
       <c r="N5">
-        <v>1.031630857266222</v>
+        <v>1.042644489348572</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.011699983804304</v>
+        <v>1.036778493588944</v>
       </c>
       <c r="D6">
-        <v>1.038447595165926</v>
+        <v>1.038363880808495</v>
       </c>
       <c r="E6">
-        <v>1.022870040814617</v>
+        <v>1.044553960774239</v>
       </c>
       <c r="F6">
-        <v>1.026674418500058</v>
+        <v>1.052942221315683</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048432134950135</v>
+        <v>1.036886682053445</v>
       </c>
       <c r="J6">
-        <v>1.030286741379262</v>
+        <v>1.041193273206167</v>
       </c>
       <c r="K6">
-        <v>1.047853730065605</v>
+        <v>1.040781552167646</v>
       </c>
       <c r="L6">
-        <v>1.032445599248226</v>
+        <v>1.046956548747984</v>
       </c>
       <c r="M6">
-        <v>1.036208017254143</v>
+        <v>1.055324673555065</v>
       </c>
       <c r="N6">
-        <v>1.031749866727562</v>
+        <v>1.042671887080658</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01032949393783</v>
+        <v>1.036477848431001</v>
       </c>
       <c r="D7">
-        <v>1.037700272590475</v>
+        <v>1.038201536972631</v>
       </c>
       <c r="E7">
-        <v>1.021677825479672</v>
+        <v>1.044275288577427</v>
       </c>
       <c r="F7">
-        <v>1.025280092563125</v>
+        <v>1.052611587155648</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048122421655156</v>
+        <v>1.036835458373695</v>
       </c>
       <c r="J7">
-        <v>1.029466615385243</v>
+        <v>1.04100513309071</v>
       </c>
       <c r="K7">
-        <v>1.047361167139624</v>
+        <v>1.040679257474158</v>
       </c>
       <c r="L7">
-        <v>1.031518557054419</v>
+        <v>1.046737819465877</v>
       </c>
       <c r="M7">
-        <v>1.035079788286719</v>
+        <v>1.05505357714196</v>
       </c>
       <c r="N7">
-        <v>1.030928576060562</v>
+        <v>1.042483479784656</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.004484201793803</v>
+        <v>1.035222066148574</v>
       </c>
       <c r="D8">
-        <v>1.034519435869597</v>
+        <v>1.037523227815018</v>
       </c>
       <c r="E8">
-        <v>1.016605158457516</v>
+        <v>1.043112113414372</v>
       </c>
       <c r="F8">
-        <v>1.019348853493478</v>
+        <v>1.051231911882934</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046782787307359</v>
+        <v>1.036619142758973</v>
       </c>
       <c r="J8">
-        <v>1.025963121748352</v>
+        <v>1.040218362820618</v>
       </c>
       <c r="K8">
-        <v>1.045251271522023</v>
+        <v>1.040250495683082</v>
       </c>
       <c r="L8">
-        <v>1.027564803647136</v>
+        <v>1.045823903758314</v>
       </c>
       <c r="M8">
-        <v>1.030272958562539</v>
+        <v>1.05392153320848</v>
       </c>
       <c r="N8">
-        <v>1.02742010706085</v>
+        <v>1.041695592210537</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9937086479989695</v>
+        <v>1.033012532618427</v>
       </c>
       <c r="D9">
-        <v>1.028687659119235</v>
+        <v>1.036329060810094</v>
       </c>
       <c r="E9">
-        <v>1.00730358385336</v>
+        <v>1.041068666320975</v>
       </c>
       <c r="F9">
-        <v>1.008476759509271</v>
+        <v>1.048809568133686</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04424479914276</v>
+        <v>1.036229679406873</v>
       </c>
       <c r="J9">
-        <v>1.019485543093817</v>
+        <v>1.038830613344115</v>
       </c>
       <c r="K9">
-        <v>1.041331834970461</v>
+        <v>1.039490565522651</v>
       </c>
       <c r="L9">
-        <v>1.020279266553993</v>
+        <v>1.044214797631286</v>
       </c>
       <c r="M9">
-        <v>1.021433788168699</v>
+        <v>1.051930917967921</v>
       </c>
       <c r="N9">
-        <v>1.020933329501637</v>
+        <v>1.040305871970601</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9861697690256117</v>
+        <v>1.031541785847536</v>
       </c>
       <c r="D10">
-        <v>1.024635951345505</v>
+        <v>1.035533792507203</v>
       </c>
       <c r="E10">
-        <v>1.000832263346329</v>
+        <v>1.039710614519688</v>
       </c>
       <c r="F10">
-        <v>1.00091393181808</v>
+        <v>1.047200663891946</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042425965768497</v>
+        <v>1.035964500351496</v>
       </c>
       <c r="J10">
-        <v>1.014943060937479</v>
+        <v>1.037904581644352</v>
       </c>
       <c r="K10">
-        <v>1.038574200564749</v>
+        <v>1.038981057613389</v>
       </c>
       <c r="L10">
-        <v>1.015186507262921</v>
+        <v>1.043143007682289</v>
       </c>
       <c r="M10">
-        <v>1.015266704527002</v>
+        <v>1.050606715410585</v>
       </c>
       <c r="N10">
-        <v>1.016384396499606</v>
+        <v>1.039378525199606</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9828124868731277</v>
+        <v>1.030905485323439</v>
       </c>
       <c r="D11">
-        <v>1.022839915593275</v>
+        <v>1.035189654297265</v>
       </c>
       <c r="E11">
-        <v>0.9979596564533011</v>
+        <v>1.03912358404848</v>
       </c>
       <c r="F11">
-        <v>0.9975567375435779</v>
+        <v>1.046505424232113</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041606470108865</v>
+        <v>1.035848368994352</v>
       </c>
       <c r="J11">
-        <v>1.012918188821951</v>
+        <v>1.037503404458687</v>
       </c>
       <c r="K11">
-        <v>1.037343586392641</v>
+        <v>1.038759764540901</v>
       </c>
       <c r="L11">
-        <v>1.012920153514937</v>
+        <v>1.0426791464524</v>
       </c>
       <c r="M11">
-        <v>1.012524877775103</v>
+        <v>1.050034014405235</v>
       </c>
       <c r="N11">
-        <v>1.014356648833419</v>
+        <v>1.038976778296323</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9815506911280557</v>
+        <v>1.030669217175818</v>
       </c>
       <c r="D12">
-        <v>1.022166285048796</v>
+        <v>1.035061860590392</v>
       </c>
       <c r="E12">
-        <v>0.9968814698268288</v>
+        <v>1.038905688352399</v>
       </c>
       <c r="F12">
-        <v>0.9962966279835033</v>
+        <v>1.046247396545077</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041297106972232</v>
+        <v>1.035805036833723</v>
       </c>
       <c r="J12">
-        <v>1.012156915723089</v>
+        <v>1.037354360207613</v>
       </c>
       <c r="K12">
-        <v>1.036880788757692</v>
+        <v>1.038677466514745</v>
       </c>
       <c r="L12">
-        <v>1.012068660829781</v>
+        <v>1.042506883269259</v>
       </c>
       <c r="M12">
-        <v>1.011495124357945</v>
+        <v>1.049821391922462</v>
       </c>
       <c r="N12">
-        <v>1.013594294639437</v>
+        <v>1.038827522385316</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9818220315343292</v>
+        <v>1.030719893764749</v>
       </c>
       <c r="D13">
-        <v>1.022311079545369</v>
+        <v>1.035089271182755</v>
       </c>
       <c r="E13">
-        <v>0.9971132599080165</v>
+        <v>1.038952420752698</v>
       </c>
       <c r="F13">
-        <v>0.9965675304664595</v>
+        <v>1.046302734602534</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041363693977694</v>
+        <v>1.035814340580654</v>
       </c>
       <c r="J13">
-        <v>1.012320632634126</v>
+        <v>1.0373863320136</v>
       </c>
       <c r="K13">
-        <v>1.03698032143673</v>
+        <v>1.038695124224108</v>
       </c>
       <c r="L13">
-        <v>1.012251754475399</v>
+        <v>1.042543832685399</v>
       </c>
       <c r="M13">
-        <v>1.011716531899727</v>
+        <v>1.049866995438536</v>
       </c>
       <c r="N13">
-        <v>1.013758244047266</v>
+        <v>1.038859539594935</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9827084921708023</v>
+        <v>1.030885953643827</v>
       </c>
       <c r="D14">
-        <v>1.02278436724059</v>
+        <v>1.035179090114668</v>
       </c>
       <c r="E14">
-        <v>0.9978707646415896</v>
+        <v>1.03910556958348</v>
       </c>
       <c r="F14">
-        <v>0.9974528479872281</v>
+        <v>1.046484091185811</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041581000378013</v>
+        <v>1.035844791135478</v>
       </c>
       <c r="J14">
-        <v>1.01285545096461</v>
+        <v>1.037491085005251</v>
       </c>
       <c r="K14">
-        <v>1.037305448746807</v>
+        <v>1.03875296379219</v>
       </c>
       <c r="L14">
-        <v>1.012849968982271</v>
+        <v>1.04266490639424</v>
       </c>
       <c r="M14">
-        <v>1.012439992418021</v>
+        <v>1.050016436834282</v>
       </c>
       <c r="N14">
-        <v>1.014293821881124</v>
+        <v>1.038964441347849</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9832526903480854</v>
+        <v>1.030988279528775</v>
       </c>
       <c r="D15">
-        <v>1.023075105969778</v>
+        <v>1.035234435153459</v>
       </c>
       <c r="E15">
-        <v>0.9983359897146743</v>
+        <v>1.039199950012949</v>
       </c>
       <c r="F15">
-        <v>0.9979965635539606</v>
+        <v>1.046595859517642</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041714226733397</v>
+        <v>1.035863526798446</v>
       </c>
       <c r="J15">
-        <v>1.013183744663771</v>
+        <v>1.03755562293682</v>
       </c>
       <c r="K15">
-        <v>1.037505009773152</v>
+        <v>1.038788587452297</v>
       </c>
       <c r="L15">
-        <v>1.013217252656594</v>
+        <v>1.042739508635645</v>
       </c>
       <c r="M15">
-        <v>1.012884222569526</v>
+        <v>1.05010852644063</v>
       </c>
       <c r="N15">
-        <v>1.014622581794993</v>
+        <v>1.039029070930684</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9863905569751091</v>
+        <v>1.031584026506932</v>
       </c>
       <c r="D16">
-        <v>1.024754250458985</v>
+        <v>1.035556636574941</v>
       </c>
       <c r="E16">
-        <v>1.001021374933471</v>
+        <v>1.03974959527391</v>
       </c>
       <c r="F16">
-        <v>1.001134941133305</v>
+        <v>1.047246834795187</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042479666128382</v>
+        <v>1.035972180117204</v>
       </c>
       <c r="J16">
-        <v>1.015076187325529</v>
+        <v>1.037931202318372</v>
       </c>
       <c r="K16">
-        <v>1.038655085488875</v>
+        <v>1.038995730029417</v>
       </c>
       <c r="L16">
-        <v>1.015335588996242</v>
+        <v>1.043173797560873</v>
       </c>
       <c r="M16">
-        <v>1.015447116469992</v>
+        <v>1.050644738249625</v>
       </c>
       <c r="N16">
-        <v>1.016517711942398</v>
+        <v>1.039405183678038</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9883334428586644</v>
+        <v>1.031957868583021</v>
       </c>
       <c r="D17">
-        <v>1.025796219025773</v>
+        <v>1.035758804682621</v>
       </c>
       <c r="E17">
-        <v>1.002686576531904</v>
+        <v>1.040094645708189</v>
       </c>
       <c r="F17">
-        <v>1.003081003245401</v>
+        <v>1.047655556980085</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042951142053671</v>
+        <v>1.036039985933867</v>
       </c>
       <c r="J17">
-        <v>1.016247451662335</v>
+        <v>1.038166740511924</v>
       </c>
       <c r="K17">
-        <v>1.039366575561635</v>
+        <v>1.039125485786056</v>
       </c>
       <c r="L17">
-        <v>1.01664766373643</v>
+        <v>1.043446277939838</v>
       </c>
       <c r="M17">
-        <v>1.017035226114131</v>
+        <v>1.050981274425363</v>
       </c>
       <c r="N17">
-        <v>1.017690639608907</v>
+        <v>1.039641056362841</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9894577886320907</v>
+        <v>1.032175976641182</v>
       </c>
       <c r="D18">
-        <v>1.026399983671104</v>
+        <v>1.03587674685594</v>
       </c>
       <c r="E18">
-        <v>1.003651101371982</v>
+        <v>1.040296005641411</v>
       </c>
       <c r="F18">
-        <v>1.004208204741834</v>
+        <v>1.047894095286627</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043223077331514</v>
+        <v>1.036079409767388</v>
       </c>
       <c r="J18">
-        <v>1.016925070514264</v>
+        <v>1.038304106669337</v>
       </c>
       <c r="K18">
-        <v>1.0397780644733</v>
+        <v>1.039201105132422</v>
       </c>
       <c r="L18">
-        <v>1.017407108261418</v>
+        <v>1.043605233355872</v>
       </c>
       <c r="M18">
-        <v>1.017954692310167</v>
+        <v>1.051177636551071</v>
       </c>
       <c r="N18">
-        <v>1.01836922075733</v>
+        <v>1.039778617595953</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9898396739730021</v>
+        <v>1.032250354702725</v>
       </c>
       <c r="D19">
-        <v>1.026605181022031</v>
+        <v>1.035916965586611</v>
       </c>
       <c r="E19">
-        <v>1.003978850026351</v>
+        <v>1.040364680739779</v>
       </c>
       <c r="F19">
-        <v>1.004591231568859</v>
+        <v>1.047975453989975</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043315284681444</v>
+        <v>1.036092830860907</v>
       </c>
       <c r="J19">
-        <v>1.017155190839093</v>
+        <v>1.038350941684602</v>
       </c>
       <c r="K19">
-        <v>1.039917781943181</v>
+        <v>1.039226878316619</v>
       </c>
       <c r="L19">
-        <v>1.017665078203444</v>
+        <v>1.043659436788438</v>
       </c>
       <c r="M19">
-        <v>1.018267061503314</v>
+        <v>1.051244602174691</v>
       </c>
       <c r="N19">
-        <v>1.018599667879416</v>
+        <v>1.039825519122312</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9881259164153198</v>
+        <v>1.031917753451594</v>
       </c>
       <c r="D20">
-        <v>1.025684840948378</v>
+        <v>1.035737111779672</v>
       </c>
       <c r="E20">
-        <v>1.002508619371966</v>
+        <v>1.040057614932935</v>
       </c>
       <c r="F20">
-        <v>1.002873031697602</v>
+        <v>1.047611690721126</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042900875738966</v>
+        <v>1.036032724055839</v>
       </c>
       <c r="J20">
-        <v>1.016122364240968</v>
+        <v>1.038141471482122</v>
       </c>
       <c r="K20">
-        <v>1.039290604016173</v>
+        <v>1.039111570935382</v>
       </c>
       <c r="L20">
-        <v>1.016507500695109</v>
+        <v>1.043417041069369</v>
       </c>
       <c r="M20">
-        <v>1.016865549732423</v>
+        <v>1.050945160417764</v>
       </c>
       <c r="N20">
-        <v>1.017565374549054</v>
+        <v>1.039615751448118</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.982447865496835</v>
+        <v>1.030837050873736</v>
       </c>
       <c r="D21">
-        <v>1.022645177409679</v>
+        <v>1.035152639710103</v>
       </c>
       <c r="E21">
-        <v>0.9976480116813099</v>
+        <v>1.039060466822314</v>
       </c>
       <c r="F21">
-        <v>0.9971925115873862</v>
+        <v>1.046430680241737</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041517147560176</v>
+        <v>1.035835829606608</v>
       </c>
       <c r="J21">
-        <v>1.012698216439972</v>
+        <v>1.037460238659493</v>
       </c>
       <c r="K21">
-        <v>1.037209865702548</v>
+        <v>1.038735934230207</v>
       </c>
       <c r="L21">
-        <v>1.012674080627908</v>
+        <v>1.04262925221706</v>
       </c>
       <c r="M21">
-        <v>1.012227268623352</v>
+        <v>1.049972427185191</v>
       </c>
       <c r="N21">
-        <v>1.014136364065426</v>
+        <v>1.038933551196742</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9787920646587619</v>
+        <v>1.030158046189369</v>
       </c>
       <c r="D22">
-        <v>1.020696261051504</v>
+        <v>1.034785359668948</v>
       </c>
       <c r="E22">
-        <v>0.994526995092458</v>
+        <v>1.03843440920567</v>
       </c>
       <c r="F22">
-        <v>0.9935447715574348</v>
+        <v>1.045689378092637</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040618318850766</v>
+        <v>1.035710901673691</v>
       </c>
       <c r="J22">
-        <v>1.010492165491353</v>
+        <v>1.037031752090213</v>
       </c>
       <c r="K22">
-        <v>1.035868576040125</v>
+        <v>1.038499178952372</v>
       </c>
       <c r="L22">
-        <v>1.010207658585518</v>
+        <v>1.042134144088949</v>
       </c>
       <c r="M22">
-        <v>1.009245201673704</v>
+        <v>1.049361434333759</v>
       </c>
       <c r="N22">
-        <v>1.011927180271422</v>
+        <v>1.038504456127386</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.980738485893016</v>
+        <v>1.03051795407659</v>
       </c>
       <c r="D23">
-        <v>1.021733085287004</v>
+        <v>1.034980042152478</v>
       </c>
       <c r="E23">
-        <v>0.9961878679441991</v>
+        <v>1.038766209568323</v>
       </c>
       <c r="F23">
-        <v>0.9954859788725225</v>
+        <v>1.046082237957161</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041097596660941</v>
+        <v>1.035777235499511</v>
       </c>
       <c r="J23">
-        <v>1.011666828126319</v>
+        <v>1.037258916638442</v>
       </c>
       <c r="K23">
-        <v>1.03658282286618</v>
+        <v>1.038624741767799</v>
       </c>
       <c r="L23">
-        <v>1.011520651772084</v>
+        <v>1.042396590467977</v>
       </c>
       <c r="M23">
-        <v>1.010832494279317</v>
+        <v>1.04968527573586</v>
       </c>
       <c r="N23">
-        <v>1.013103511062065</v>
+        <v>1.038731943275329</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9882197161485106</v>
+        <v>1.031935879591159</v>
       </c>
       <c r="D24">
-        <v>1.025735180244643</v>
+        <v>1.035746913804287</v>
       </c>
       <c r="E24">
-        <v>1.002589051397775</v>
+        <v>1.040074347244037</v>
       </c>
       <c r="F24">
-        <v>1.002967029460802</v>
+        <v>1.047631511570329</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04292359839366</v>
+        <v>1.036036005775781</v>
       </c>
       <c r="J24">
-        <v>1.016178903011894</v>
+        <v>1.038152889528635</v>
       </c>
       <c r="K24">
-        <v>1.039324943123551</v>
+        <v>1.039117858658393</v>
       </c>
       <c r="L24">
-        <v>1.016570852434516</v>
+        <v>1.043430251884044</v>
       </c>
       <c r="M24">
-        <v>1.016942240315794</v>
+        <v>1.050961478578581</v>
       </c>
       <c r="N24">
-        <v>1.017621993611521</v>
+        <v>1.039627185709566</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9965542406013511</v>
+        <v>1.033583352339339</v>
       </c>
       <c r="D25">
-        <v>1.030223316672381</v>
+        <v>1.036637640547429</v>
       </c>
       <c r="E25">
-        <v>1.009753872502378</v>
+        <v>1.041596202846229</v>
       </c>
       <c r="F25">
-        <v>1.011340461564389</v>
+        <v>1.049434750499558</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044922700904544</v>
+        <v>1.036331343508695</v>
       </c>
       <c r="J25">
-        <v>1.021198127365353</v>
+        <v>1.039189535959773</v>
       </c>
       <c r="K25">
-        <v>1.042369896017602</v>
+        <v>1.039687539689703</v>
       </c>
       <c r="L25">
-        <v>1.022202635879525</v>
+        <v>1.044630627038571</v>
       </c>
       <c r="M25">
-        <v>1.023765245759004</v>
+        <v>1.052445037269882</v>
       </c>
       <c r="N25">
-        <v>1.022648345839274</v>
+        <v>1.040665304297541</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_81/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_81/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034898999729031</v>
+        <v>1.002948348464259</v>
       </c>
       <c r="D2">
-        <v>1.037348674143905</v>
+        <v>1.033685567042614</v>
       </c>
       <c r="E2">
-        <v>1.042813083993994</v>
+        <v>1.015275528987115</v>
       </c>
       <c r="F2">
-        <v>1.050877323449932</v>
+        <v>1.017794482127646</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036562890441823</v>
+        <v>1.046426133822696</v>
       </c>
       <c r="J2">
-        <v>1.040015721869943</v>
+        <v>1.025041231130287</v>
       </c>
       <c r="K2">
-        <v>1.040139813858282</v>
+        <v>1.044694738522392</v>
       </c>
       <c r="L2">
-        <v>1.045588712784967</v>
+        <v>1.026526075658298</v>
       </c>
       <c r="M2">
-        <v>1.053630381151885</v>
+        <v>1.029011355307443</v>
       </c>
       <c r="N2">
-        <v>1.041492663486469</v>
+        <v>1.026496907252365</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03585520950967</v>
+        <v>1.007455863692666</v>
       </c>
       <c r="D3">
-        <v>1.037865259363114</v>
+        <v>1.03613514705656</v>
       </c>
       <c r="E3">
-        <v>1.043698400329391</v>
+        <v>1.019181576351214</v>
       </c>
       <c r="F3">
-        <v>1.051927246086503</v>
+        <v>1.022361087998505</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036728675710002</v>
+        <v>1.047467484856181</v>
       </c>
       <c r="J3">
-        <v>1.040615221469768</v>
+        <v>1.027745317541884</v>
       </c>
       <c r="K3">
-        <v>1.040466965015093</v>
+        <v>1.046325641553712</v>
       </c>
       <c r="L3">
-        <v>1.046284742189328</v>
+        <v>1.029574769882226</v>
       </c>
       <c r="M3">
-        <v>1.054492226830413</v>
+        <v>1.032715630882147</v>
       </c>
       <c r="N3">
-        <v>1.04209301444449</v>
+        <v>1.029204833776829</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036474369398514</v>
+        <v>1.010313570097707</v>
       </c>
       <c r="D4">
-        <v>1.038199658230909</v>
+        <v>1.037691592652922</v>
       </c>
       <c r="E4">
-        <v>1.04427206426585</v>
+        <v>1.021663979557258</v>
       </c>
       <c r="F4">
-        <v>1.052607761844343</v>
+        <v>1.025263900215625</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036834864325452</v>
+        <v>1.048118812811876</v>
       </c>
       <c r="J4">
-        <v>1.041002955450372</v>
+        <v>1.029457083153962</v>
       </c>
       <c r="K4">
-        <v>1.040678072916442</v>
+        <v>1.047355438887712</v>
       </c>
       <c r="L4">
-        <v>1.046735288193394</v>
+        <v>1.031507785669322</v>
       </c>
       <c r="M4">
-        <v>1.055050440215963</v>
+        <v>1.035066682018928</v>
       </c>
       <c r="N4">
-        <v>1.04248129905182</v>
+        <v>1.030919030292419</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036734765925344</v>
+        <v>1.011501336727292</v>
       </c>
       <c r="D5">
-        <v>1.038340269785279</v>
+        <v>1.038339239650632</v>
       </c>
       <c r="E5">
-        <v>1.044513424180367</v>
+        <v>1.02269716481139</v>
       </c>
       <c r="F5">
-        <v>1.052894123879218</v>
+        <v>1.026472226924147</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036879245543404</v>
+        <v>1.04838735248674</v>
       </c>
       <c r="J5">
-        <v>1.041165914326828</v>
+        <v>1.030167900685339</v>
       </c>
       <c r="K5">
-        <v>1.040766682485641</v>
+        <v>1.047782389867199</v>
       </c>
       <c r="L5">
-        <v>1.046924737149593</v>
+        <v>1.032311228394071</v>
       </c>
       <c r="M5">
-        <v>1.055285241814959</v>
+        <v>1.036044456221581</v>
       </c>
       <c r="N5">
-        <v>1.042644489348572</v>
+        <v>1.031630857266222</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036778493588944</v>
+        <v>1.011699983804304</v>
       </c>
       <c r="D6">
-        <v>1.038363880808495</v>
+        <v>1.038447595165926</v>
       </c>
       <c r="E6">
-        <v>1.044553960774239</v>
+        <v>1.022870040814617</v>
       </c>
       <c r="F6">
-        <v>1.052942221315683</v>
+        <v>1.026674418500058</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036886682053445</v>
+        <v>1.048432134950135</v>
       </c>
       <c r="J6">
-        <v>1.041193273206167</v>
+        <v>1.030286741379262</v>
       </c>
       <c r="K6">
-        <v>1.040781552167646</v>
+        <v>1.047853730065605</v>
       </c>
       <c r="L6">
-        <v>1.046956548747984</v>
+        <v>1.032445599248226</v>
       </c>
       <c r="M6">
-        <v>1.055324673555065</v>
+        <v>1.036208017254143</v>
       </c>
       <c r="N6">
-        <v>1.042671887080658</v>
+        <v>1.031749866727561</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036477848431001</v>
+        <v>1.010329493937829</v>
       </c>
       <c r="D7">
-        <v>1.038201536972631</v>
+        <v>1.037700272590474</v>
       </c>
       <c r="E7">
-        <v>1.044275288577427</v>
+        <v>1.021677825479671</v>
       </c>
       <c r="F7">
-        <v>1.052611587155648</v>
+        <v>1.025280092563124</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036835458373695</v>
+        <v>1.048122421655156</v>
       </c>
       <c r="J7">
-        <v>1.04100513309071</v>
+        <v>1.029466615385242</v>
       </c>
       <c r="K7">
-        <v>1.040679257474158</v>
+        <v>1.047361167139624</v>
       </c>
       <c r="L7">
-        <v>1.046737819465877</v>
+        <v>1.031518557054418</v>
       </c>
       <c r="M7">
-        <v>1.05505357714196</v>
+        <v>1.035079788286718</v>
       </c>
       <c r="N7">
-        <v>1.042483479784656</v>
+        <v>1.03092857606056</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035222066148574</v>
+        <v>1.004484201793801</v>
       </c>
       <c r="D8">
-        <v>1.037523227815018</v>
+        <v>1.034519435869597</v>
       </c>
       <c r="E8">
-        <v>1.043112113414372</v>
+        <v>1.016605158457513</v>
       </c>
       <c r="F8">
-        <v>1.051231911882934</v>
+        <v>1.019348853493475</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036619142758973</v>
+        <v>1.046782787307358</v>
       </c>
       <c r="J8">
-        <v>1.040218362820618</v>
+        <v>1.02596312174835</v>
       </c>
       <c r="K8">
-        <v>1.040250495683082</v>
+        <v>1.045251271522022</v>
       </c>
       <c r="L8">
-        <v>1.045823903758314</v>
+        <v>1.027564803647134</v>
       </c>
       <c r="M8">
-        <v>1.05392153320848</v>
+        <v>1.030272958562537</v>
       </c>
       <c r="N8">
-        <v>1.041695592210537</v>
+        <v>1.027420107060848</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033012532618427</v>
+        <v>0.9937086479989692</v>
       </c>
       <c r="D9">
-        <v>1.036329060810094</v>
+        <v>1.028687659119235</v>
       </c>
       <c r="E9">
-        <v>1.041068666320975</v>
+        <v>1.007303583853359</v>
       </c>
       <c r="F9">
-        <v>1.048809568133686</v>
+        <v>1.00847675950927</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036229679406873</v>
+        <v>1.04424479914276</v>
       </c>
       <c r="J9">
-        <v>1.038830613344115</v>
+        <v>1.019485543093817</v>
       </c>
       <c r="K9">
-        <v>1.039490565522651</v>
+        <v>1.041331834970461</v>
       </c>
       <c r="L9">
-        <v>1.044214797631286</v>
+        <v>1.020279266553993</v>
       </c>
       <c r="M9">
-        <v>1.051930917967921</v>
+        <v>1.021433788168699</v>
       </c>
       <c r="N9">
-        <v>1.040305871970601</v>
+        <v>1.020933329501636</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031541785847536</v>
+        <v>0.9861697690256114</v>
       </c>
       <c r="D10">
-        <v>1.035533792507203</v>
+        <v>1.024635951345505</v>
       </c>
       <c r="E10">
-        <v>1.039710614519688</v>
+        <v>1.000832263346328</v>
       </c>
       <c r="F10">
-        <v>1.047200663891946</v>
+        <v>1.000913931818079</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035964500351496</v>
+        <v>1.042425965768496</v>
       </c>
       <c r="J10">
-        <v>1.037904581644352</v>
+        <v>1.014943060937479</v>
       </c>
       <c r="K10">
-        <v>1.038981057613389</v>
+        <v>1.038574200564749</v>
       </c>
       <c r="L10">
-        <v>1.043143007682289</v>
+        <v>1.01518650726292</v>
       </c>
       <c r="M10">
-        <v>1.050606715410585</v>
+        <v>1.015266704527002</v>
       </c>
       <c r="N10">
-        <v>1.039378525199606</v>
+        <v>1.016384396499606</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030905485323439</v>
+        <v>0.9828124868731267</v>
       </c>
       <c r="D11">
-        <v>1.035189654297265</v>
+        <v>1.022839915593274</v>
       </c>
       <c r="E11">
-        <v>1.03912358404848</v>
+        <v>0.9979596564533003</v>
       </c>
       <c r="F11">
-        <v>1.046505424232113</v>
+        <v>0.9975567375435771</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035848368994352</v>
+        <v>1.041606470108865</v>
       </c>
       <c r="J11">
-        <v>1.037503404458687</v>
+        <v>1.01291818882195</v>
       </c>
       <c r="K11">
-        <v>1.038759764540901</v>
+        <v>1.03734358639264</v>
       </c>
       <c r="L11">
-        <v>1.0426791464524</v>
+        <v>1.012920153514936</v>
       </c>
       <c r="M11">
-        <v>1.050034014405235</v>
+        <v>1.012524877775103</v>
       </c>
       <c r="N11">
-        <v>1.038976778296323</v>
+        <v>1.014356648833418</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030669217175818</v>
+        <v>0.9815506911280548</v>
       </c>
       <c r="D12">
-        <v>1.035061860590392</v>
+        <v>1.022166285048796</v>
       </c>
       <c r="E12">
-        <v>1.038905688352399</v>
+        <v>0.9968814698268279</v>
       </c>
       <c r="F12">
-        <v>1.046247396545077</v>
+        <v>0.9962966279835023</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035805036833723</v>
+        <v>1.041297106972232</v>
       </c>
       <c r="J12">
-        <v>1.037354360207613</v>
+        <v>1.012156915723088</v>
       </c>
       <c r="K12">
-        <v>1.038677466514745</v>
+        <v>1.036880788757692</v>
       </c>
       <c r="L12">
-        <v>1.042506883269259</v>
+        <v>1.01206866082978</v>
       </c>
       <c r="M12">
-        <v>1.049821391922462</v>
+        <v>1.011495124357944</v>
       </c>
       <c r="N12">
-        <v>1.038827522385316</v>
+        <v>1.013594294639435</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030719893764749</v>
+        <v>0.9818220315343295</v>
       </c>
       <c r="D13">
-        <v>1.035089271182755</v>
+        <v>1.022311079545369</v>
       </c>
       <c r="E13">
-        <v>1.038952420752698</v>
+        <v>0.9971132599080167</v>
       </c>
       <c r="F13">
-        <v>1.046302734602534</v>
+        <v>0.9965675304664601</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035814340580654</v>
+        <v>1.041363693977694</v>
       </c>
       <c r="J13">
-        <v>1.0373863320136</v>
+        <v>1.012320632634126</v>
       </c>
       <c r="K13">
-        <v>1.038695124224108</v>
+        <v>1.03698032143673</v>
       </c>
       <c r="L13">
-        <v>1.042543832685399</v>
+        <v>1.0122517544754</v>
       </c>
       <c r="M13">
-        <v>1.049866995438536</v>
+        <v>1.011716531899727</v>
       </c>
       <c r="N13">
-        <v>1.038859539594935</v>
+        <v>1.013758244047266</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030885953643827</v>
+        <v>0.9827084921708015</v>
       </c>
       <c r="D14">
-        <v>1.035179090114668</v>
+        <v>1.02278436724059</v>
       </c>
       <c r="E14">
-        <v>1.03910556958348</v>
+        <v>0.997870764641589</v>
       </c>
       <c r="F14">
-        <v>1.046484091185811</v>
+        <v>0.9974528479872273</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035844791135478</v>
+        <v>1.041581000378013</v>
       </c>
       <c r="J14">
-        <v>1.037491085005251</v>
+        <v>1.012855450964609</v>
       </c>
       <c r="K14">
-        <v>1.03875296379219</v>
+        <v>1.037305448746807</v>
       </c>
       <c r="L14">
-        <v>1.04266490639424</v>
+        <v>1.012849968982271</v>
       </c>
       <c r="M14">
-        <v>1.050016436834282</v>
+        <v>1.012439992418021</v>
       </c>
       <c r="N14">
-        <v>1.038964441347849</v>
+        <v>1.014293821881123</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030988279528775</v>
+        <v>0.9832526903480836</v>
       </c>
       <c r="D15">
-        <v>1.035234435153459</v>
+        <v>1.023075105969778</v>
       </c>
       <c r="E15">
-        <v>1.039199950012949</v>
+        <v>0.9983359897146726</v>
       </c>
       <c r="F15">
-        <v>1.046595859517642</v>
+        <v>0.9979965635539589</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035863526798446</v>
+        <v>1.041714226733396</v>
       </c>
       <c r="J15">
-        <v>1.03755562293682</v>
+        <v>1.01318374466377</v>
       </c>
       <c r="K15">
-        <v>1.038788587452297</v>
+        <v>1.037505009773152</v>
       </c>
       <c r="L15">
-        <v>1.042739508635645</v>
+        <v>1.013217252656593</v>
       </c>
       <c r="M15">
-        <v>1.05010852644063</v>
+        <v>1.012884222569524</v>
       </c>
       <c r="N15">
-        <v>1.039029070930684</v>
+        <v>1.014622581794992</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031584026506932</v>
+        <v>0.9863905569751081</v>
       </c>
       <c r="D16">
-        <v>1.035556636574941</v>
+        <v>1.024754250458985</v>
       </c>
       <c r="E16">
-        <v>1.03974959527391</v>
+        <v>1.00102137493347</v>
       </c>
       <c r="F16">
-        <v>1.047246834795187</v>
+        <v>1.001134941133304</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035972180117204</v>
+        <v>1.042479666128382</v>
       </c>
       <c r="J16">
-        <v>1.037931202318372</v>
+        <v>1.015076187325529</v>
       </c>
       <c r="K16">
-        <v>1.038995730029417</v>
+        <v>1.038655085488874</v>
       </c>
       <c r="L16">
-        <v>1.043173797560873</v>
+        <v>1.015335588996241</v>
       </c>
       <c r="M16">
-        <v>1.050644738249625</v>
+        <v>1.015447116469991</v>
       </c>
       <c r="N16">
-        <v>1.039405183678038</v>
+        <v>1.016517711942397</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031957868583021</v>
+        <v>0.9883334428586633</v>
       </c>
       <c r="D17">
-        <v>1.035758804682621</v>
+        <v>1.025796219025773</v>
       </c>
       <c r="E17">
-        <v>1.040094645708189</v>
+        <v>1.002686576531902</v>
       </c>
       <c r="F17">
-        <v>1.047655556980085</v>
+        <v>1.0030810032454</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036039985933867</v>
+        <v>1.042951142053671</v>
       </c>
       <c r="J17">
-        <v>1.038166740511924</v>
+        <v>1.016247451662333</v>
       </c>
       <c r="K17">
-        <v>1.039125485786056</v>
+        <v>1.039366575561634</v>
       </c>
       <c r="L17">
-        <v>1.043446277939838</v>
+        <v>1.016647663736429</v>
       </c>
       <c r="M17">
-        <v>1.050981274425363</v>
+        <v>1.01703522611413</v>
       </c>
       <c r="N17">
-        <v>1.039641056362841</v>
+        <v>1.017690639608906</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032175976641182</v>
+        <v>0.9894577886320904</v>
       </c>
       <c r="D18">
-        <v>1.03587674685594</v>
+        <v>1.026399983671103</v>
       </c>
       <c r="E18">
-        <v>1.040296005641411</v>
+        <v>1.003651101371982</v>
       </c>
       <c r="F18">
-        <v>1.047894095286627</v>
+        <v>1.004208204741834</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036079409767388</v>
+        <v>1.043223077331514</v>
       </c>
       <c r="J18">
-        <v>1.038304106669337</v>
+        <v>1.016925070514264</v>
       </c>
       <c r="K18">
-        <v>1.039201105132422</v>
+        <v>1.0397780644733</v>
       </c>
       <c r="L18">
-        <v>1.043605233355872</v>
+        <v>1.017407108261418</v>
       </c>
       <c r="M18">
-        <v>1.051177636551071</v>
+        <v>1.017954692310167</v>
       </c>
       <c r="N18">
-        <v>1.039778617595953</v>
+        <v>1.01836922075733</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032250354702725</v>
+        <v>0.9898396739730022</v>
       </c>
       <c r="D19">
-        <v>1.035916965586611</v>
+        <v>1.026605181022032</v>
       </c>
       <c r="E19">
-        <v>1.040364680739779</v>
+        <v>1.003978850026352</v>
       </c>
       <c r="F19">
-        <v>1.047975453989975</v>
+        <v>1.00459123156886</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036092830860907</v>
+        <v>1.043315284681444</v>
       </c>
       <c r="J19">
-        <v>1.038350941684602</v>
+        <v>1.017155190839094</v>
       </c>
       <c r="K19">
-        <v>1.039226878316619</v>
+        <v>1.039917781943182</v>
       </c>
       <c r="L19">
-        <v>1.043659436788438</v>
+        <v>1.017665078203444</v>
       </c>
       <c r="M19">
-        <v>1.051244602174691</v>
+        <v>1.018267061503315</v>
       </c>
       <c r="N19">
-        <v>1.039825519122312</v>
+        <v>1.018599667879416</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031917753451594</v>
+        <v>0.9881259164153191</v>
       </c>
       <c r="D20">
-        <v>1.035737111779672</v>
+        <v>1.025684840948377</v>
       </c>
       <c r="E20">
-        <v>1.040057614932935</v>
+        <v>1.002508619371965</v>
       </c>
       <c r="F20">
-        <v>1.047611690721126</v>
+        <v>1.002873031697601</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036032724055839</v>
+        <v>1.042900875738965</v>
       </c>
       <c r="J20">
-        <v>1.038141471482122</v>
+        <v>1.016122364240967</v>
       </c>
       <c r="K20">
-        <v>1.039111570935382</v>
+        <v>1.039290604016172</v>
       </c>
       <c r="L20">
-        <v>1.043417041069369</v>
+        <v>1.016507500695109</v>
       </c>
       <c r="M20">
-        <v>1.050945160417764</v>
+        <v>1.016865549732422</v>
       </c>
       <c r="N20">
-        <v>1.039615751448118</v>
+        <v>1.017565374549053</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030837050873736</v>
+        <v>0.9824478654968339</v>
       </c>
       <c r="D21">
-        <v>1.035152639710103</v>
+        <v>1.022645177409679</v>
       </c>
       <c r="E21">
-        <v>1.039060466822314</v>
+        <v>0.9976480116813089</v>
       </c>
       <c r="F21">
-        <v>1.046430680241737</v>
+        <v>0.997192511587385</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035835829606608</v>
+        <v>1.041517147560175</v>
       </c>
       <c r="J21">
-        <v>1.037460238659493</v>
+        <v>1.012698216439971</v>
       </c>
       <c r="K21">
-        <v>1.038735934230207</v>
+        <v>1.037209865702548</v>
       </c>
       <c r="L21">
-        <v>1.04262925221706</v>
+        <v>1.012674080627907</v>
       </c>
       <c r="M21">
-        <v>1.049972427185191</v>
+        <v>1.012227268623351</v>
       </c>
       <c r="N21">
-        <v>1.038933551196742</v>
+        <v>1.014136364065425</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.030158046189369</v>
+        <v>0.9787920646587613</v>
       </c>
       <c r="D22">
-        <v>1.034785359668948</v>
+        <v>1.020696261051504</v>
       </c>
       <c r="E22">
-        <v>1.03843440920567</v>
+        <v>0.9945269950924572</v>
       </c>
       <c r="F22">
-        <v>1.045689378092637</v>
+        <v>0.9935447715574344</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035710901673691</v>
+        <v>1.040618318850766</v>
       </c>
       <c r="J22">
-        <v>1.037031752090213</v>
+        <v>1.010492165491353</v>
       </c>
       <c r="K22">
-        <v>1.038499178952372</v>
+        <v>1.035868576040125</v>
       </c>
       <c r="L22">
-        <v>1.042134144088949</v>
+        <v>1.010207658585517</v>
       </c>
       <c r="M22">
-        <v>1.049361434333759</v>
+        <v>1.009245201673703</v>
       </c>
       <c r="N22">
-        <v>1.038504456127386</v>
+        <v>1.011927180271422</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03051795407659</v>
+        <v>0.9807384858930159</v>
       </c>
       <c r="D23">
-        <v>1.034980042152478</v>
+        <v>1.021733085287004</v>
       </c>
       <c r="E23">
-        <v>1.038766209568323</v>
+        <v>0.9961878679441987</v>
       </c>
       <c r="F23">
-        <v>1.046082237957161</v>
+        <v>0.995485978872522</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035777235499511</v>
+        <v>1.041097596660941</v>
       </c>
       <c r="J23">
-        <v>1.037258916638442</v>
+        <v>1.011666828126318</v>
       </c>
       <c r="K23">
-        <v>1.038624741767799</v>
+        <v>1.03658282286618</v>
       </c>
       <c r="L23">
-        <v>1.042396590467977</v>
+        <v>1.011520651772083</v>
       </c>
       <c r="M23">
-        <v>1.04968527573586</v>
+        <v>1.010832494279317</v>
       </c>
       <c r="N23">
-        <v>1.038731943275329</v>
+        <v>1.013103511062065</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.031935879591159</v>
+        <v>0.9882197161485095</v>
       </c>
       <c r="D24">
-        <v>1.035746913804287</v>
+        <v>1.025735180244642</v>
       </c>
       <c r="E24">
-        <v>1.040074347244037</v>
+        <v>1.002589051397774</v>
       </c>
       <c r="F24">
-        <v>1.047631511570329</v>
+        <v>1.002967029460801</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036036005775781</v>
+        <v>1.042923598393659</v>
       </c>
       <c r="J24">
-        <v>1.038152889528635</v>
+        <v>1.016178903011893</v>
       </c>
       <c r="K24">
-        <v>1.039117858658393</v>
+        <v>1.039324943123551</v>
       </c>
       <c r="L24">
-        <v>1.043430251884044</v>
+        <v>1.016570852434515</v>
       </c>
       <c r="M24">
-        <v>1.050961478578581</v>
+        <v>1.016942240315793</v>
       </c>
       <c r="N24">
-        <v>1.039627185709566</v>
+        <v>1.01762199361152</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033583352339339</v>
+        <v>0.9965542406013493</v>
       </c>
       <c r="D25">
-        <v>1.036637640547429</v>
+        <v>1.030223316672381</v>
       </c>
       <c r="E25">
-        <v>1.041596202846229</v>
+        <v>1.009753872502376</v>
       </c>
       <c r="F25">
-        <v>1.049434750499558</v>
+        <v>1.011340461564387</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036331343508695</v>
+        <v>1.044922700904543</v>
       </c>
       <c r="J25">
-        <v>1.039189535959773</v>
+        <v>1.021198127365351</v>
       </c>
       <c r="K25">
-        <v>1.039687539689703</v>
+        <v>1.042369896017601</v>
       </c>
       <c r="L25">
-        <v>1.044630627038571</v>
+        <v>1.022202635879523</v>
       </c>
       <c r="M25">
-        <v>1.052445037269882</v>
+        <v>1.023765245759002</v>
       </c>
       <c r="N25">
-        <v>1.040665304297541</v>
+        <v>1.022648345839273</v>
       </c>
     </row>
   </sheetData>
